--- a/ee-PPLCreator-v3/Amlodipine/Import-amoxicillin-clavulanicAcid-packages-2023-06-20.xlsx
+++ b/ee-PPLCreator-v3/Amlodipine/Import-amoxicillin-clavulanicAcid-packages-2023-06-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/unicom/unicom-tools/ee-PPLCreator-v3/Amlodipine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC84597-0022-8A40-8079-733A324886B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1255EA3-83A0-9546-9567-C3E0E908FC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Otsing" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="181">
   <si>
     <t>Müügiloa number</t>
   </si>
@@ -557,6 +557,15 @@
   </si>
   <si>
     <t>amoxicillin and beta-lactamase inhibitor</t>
+  </si>
+  <si>
+    <t>referenceWeight</t>
+  </si>
+  <si>
+    <t>199.16|237.25,365.4|419.5</t>
+  </si>
+  <si>
+    <t>365.4|419.5,199.16|237.25</t>
   </si>
 </sst>
 </file>
@@ -944,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -962,6 +971,8 @@
     <col min="16" max="18" width="0" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="26.33203125" customWidth="1"/>
     <col min="21" max="21" width="37.1640625" customWidth="1"/>
+    <col min="23" max="23" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
@@ -1070,6 +1081,9 @@
       <c r="AI1" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="2" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1175,7 +1189,9 @@
       <c r="AI2" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="AJ2" s="6"/>
+      <c r="AJ2" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="3" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1281,6 +1297,9 @@
       <c r="AI3" s="6" t="s">
         <v>177</v>
       </c>
+      <c r="AJ3" s="6" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="4" spans="1:36" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1382,6 +1401,9 @@
       <c r="AI4" s="6" t="s">
         <v>177</v>
       </c>
+      <c r="AJ4" s="6" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="5" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -1485,6 +1507,9 @@
       <c r="AI5" s="6" t="s">
         <v>177</v>
       </c>
+      <c r="AJ5" s="6" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="6" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -1588,6 +1613,9 @@
       <c r="AI6" s="6" t="s">
         <v>177</v>
       </c>
+      <c r="AJ6" s="6" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="7" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -1691,6 +1719,9 @@
       <c r="AI7" s="6" t="s">
         <v>177</v>
       </c>
+      <c r="AJ7" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="8" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -1794,6 +1825,9 @@
       <c r="AI8" s="6" t="s">
         <v>177</v>
       </c>
+      <c r="AJ8" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="9" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -1897,6 +1931,9 @@
       <c r="AI9" s="6" t="s">
         <v>177</v>
       </c>
+      <c r="AJ9" s="6" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="10" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -2000,6 +2037,9 @@
       <c r="AI10" s="6" t="s">
         <v>177</v>
       </c>
+      <c r="AJ10" s="6" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="11" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -2103,6 +2143,9 @@
       <c r="AI11" s="6" t="s">
         <v>177</v>
       </c>
+      <c r="AJ11" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="12" spans="1:36" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -2206,6 +2249,9 @@
       <c r="AI12" s="6" t="s">
         <v>177</v>
       </c>
+      <c r="AJ12" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="13" spans="1:36" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -2309,6 +2355,9 @@
       <c r="AI13" s="6" t="s">
         <v>177</v>
       </c>
+      <c r="AJ13" s="6" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="14" spans="1:36" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -2412,6 +2461,9 @@
       <c r="AI14" s="6" t="s">
         <v>177</v>
       </c>
+      <c r="AJ14" s="6" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="15" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -2515,6 +2567,9 @@
       <c r="AI15" s="6" t="s">
         <v>177</v>
       </c>
+      <c r="AJ15" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="16" spans="1:36" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -2619,8 +2674,11 @@
       <c r="AI16" s="6" t="s">
         <v>177</v>
       </c>
+      <c r="AJ16" s="6" t="s">
+        <v>180</v>
+      </c>
     </row>
-    <row r="17" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>130</v>
       </c>
@@ -2724,8 +2782,11 @@
       <c r="AI17" s="6" t="s">
         <v>177</v>
       </c>
+      <c r="AJ17" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>149</v>
       </c>
@@ -2824,6 +2885,9 @@
       </c>
       <c r="AI18" s="6" t="s">
         <v>177</v>
+      </c>
+      <c r="AJ18" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
